--- a/biology/Zoologie/Amphibiens_et_reptiles_du_Japon_sur_timbres/Amphibiens_et_reptiles_du_Japon_sur_timbres.xlsx
+++ b/biology/Zoologie/Amphibiens_et_reptiles_du_Japon_sur_timbres/Amphibiens_et_reptiles_du_Japon_sur_timbres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japonais ont une grande admiration pour la nature de leur pays, et il n'est pas étonnant qu'ils aient souvent représenté les animaux qui les entourent sur leurs timbres.
 Cet article tente de recenser et surtout d'identifier et de classer les espèces d'amphibiens et de reptiles de la faune japonaise qui apparaissent sur les timbres du Japon et, éventuellement, sur ceux de quelques autres pays qui ont représenté des scènes japonaises.
@@ -513,7 +525,9 @@
           <t>Amphibiens</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhacophoridae
 Rhacophorus arboreus - Japonais mori aogaeru
@@ -548,12 +562,48 @@
           <t>Reptiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reptile fossile
-1977, 50 y.
-Tortues
-Cheloniidae
+1977, 50 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amphibiens_et_reptiles_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphibiens_et_reptiles_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tortues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cheloniidae
 Eretmochelys imbricata
 Ryukyu, 20/1/1966, 3 c. (YT 133)
 Bataguridae
@@ -562,10 +612,43 @@
 Madagascar, 1975, 75 f. (YT 570)
 Geoemyda japonica - Japonais ryukyu yama game
 Ryukyu, 1966, 3 c. (YT 137)
-1976, 50 y.
-Lézards et serpents
-Dinosaures
-Dromaeosauridae
+1976, 50 y.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amphibiens_et_reptiles_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphibiens_et_reptiles_du_Japon_sur_timbres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reptiles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dinosaures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dromaeosauridae
 Droméosaure
 22/2/1999, 80 y. (timbre de la préfecture de Fukui)
 Iguanodontidae
